--- a/02_Solartech/pricing/ZOHO_BULK_UPDATE_MAPPING.xlsx
+++ b/02_Solartech/pricing/ZOHO_BULK_UPDATE_MAPPING.xlsx
@@ -10317,7 +10317,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>HWS</t>
+          <t>WCN</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>HWS</t>
+          <t>WCN</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H710" t="inlineStr">
@@ -36343,7 +36343,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>HWS</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H713" t="inlineStr">
@@ -36600,7 +36600,7 @@
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>HWS</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H718" t="inlineStr">
@@ -37061,7 +37061,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H727" t="inlineStr">
@@ -37071,7 +37071,7 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
@@ -37471,7 +37471,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H735" t="inlineStr">
@@ -37481,7 +37481,7 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
@@ -37524,7 +37524,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H736" t="inlineStr">
@@ -37534,7 +37534,7 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
@@ -38132,7 +38132,7 @@
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H748" t="inlineStr">
@@ -38338,7 +38338,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H752" t="inlineStr">
@@ -38348,7 +38348,7 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
@@ -38442,7 +38442,7 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H754" t="inlineStr">
@@ -38452,7 +38452,7 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
@@ -38699,7 +38699,7 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H759" t="inlineStr">
@@ -38750,7 +38750,7 @@
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="H760" t="inlineStr">
